--- a/KXMARMAD_markets.xlsx
+++ b/KXMARMAD_markets.xlsx
@@ -15,7 +15,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1691,6 +1704,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1980,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
